--- a/source_plates/221018_arpae_buffers.xlsx
+++ b/source_plates/221018_arpae_buffers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D0672-0355-4A8D-8A0C-3F51889A9CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01776963-E0C1-4E60-904A-CA3A79381A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20175" yWindow="2205" windowWidth="16260" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Item</t>
   </si>
@@ -101,9 +101,6 @@
     <t>I1,I2</t>
   </si>
   <si>
-    <t>E1,E2</t>
-  </si>
-  <si>
     <t>A1,A2</t>
   </si>
   <si>
@@ -128,47 +125,35 @@
     <t>polyphosphate</t>
   </si>
   <si>
-    <t>20.6,44.6,</t>
-  </si>
-  <si>
-    <t>20.424999999999997,60.35,</t>
-  </si>
-  <si>
-    <t>40.85,</t>
-  </si>
-  <si>
-    <t>20.5,55.5,</t>
-  </si>
-  <si>
-    <t>20.625,41.875,</t>
-  </si>
-  <si>
-    <t>54.2,</t>
-  </si>
-  <si>
-    <t>21.799999999999997,</t>
-  </si>
-  <si>
-    <t>20.200000000000003,58.5,</t>
-  </si>
-  <si>
-    <t>20.75,28.25,</t>
-  </si>
-  <si>
-    <t>20.200000000000003,61.5,</t>
-  </si>
-  <si>
-    <t>20.200000000000003,20.325000000000003,53.0,</t>
-  </si>
-  <si>
-    <t>63.125,</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>E1,E2,E3</t>
+  </si>
+  <si>
+    <t>60,60,53</t>
+  </si>
+  <si>
+    <t>60,61</t>
+  </si>
+  <si>
+    <t>60,60</t>
+  </si>
+  <si>
+    <t>60,58</t>
+  </si>
+  <si>
+    <t>60,60,60</t>
+  </si>
+  <si>
+    <t>60,55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +173,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -232,10 +229,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -243,8 +241,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>40.950000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,13 +615,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
+      <c r="E4">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,13 +632,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,8 +671,8 @@
       <c r="D7">
         <v>250</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
+      <c r="E7">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,8 +688,8 @@
       <c r="D8">
         <v>932.95676000000003</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
+      <c r="E8">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,13 +734,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,13 +751,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,13 +773,25 @@
       <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>42</v>
+      <c r="E13">
+        <v>63.125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
